--- a/Output_testing/R1_201907/Country/HKD/MN/CAMBODIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CAMBODIA_201907_HKD_MN.xlsx
@@ -698,8 +698,10 @@
       <c r="I11" s="9" t="n">
         <v>8.111633503508919</v>
       </c>
-      <c r="J11" s="9" t="n">
-        <v>-0.01845781037966843</v>
+      <c r="J11" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="12">

--- a/Output_testing/R1_201907/Country/HKD/MN/CAMBODIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CAMBODIA_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2254.959233</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>32.10682407317321</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>2360.588222</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>33.10048103304439</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>2374.482702</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>31.44127736285895</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1307.919092</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>28.30918438124167</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-9.542260197556264</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>415.853448</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>5.921053161300539</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>424.546845</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.953052150135372</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>494.661785</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>6.549973335199264</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>336.118886</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>7.275107134678596</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>15.67710407281428</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>710.659489</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>10.11859498625986</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>425.766909</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.970160049308436</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>385.821798</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.108788601971015</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>257.801112</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.579962291197394</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>84.30124083742434</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>365.491631</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.203985653045349</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>377.395087</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.291883947732259</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>393.027757</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.204204986935014</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>226.088784</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.893566514882499</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-4.92698642177738</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>66.229066</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.9429904272653331</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>106.364505</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.491457191698915</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>247.915513</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.282727812766548</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>203.043431</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.394762612410066</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>52.91991017553115</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>329.277316</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.688354761089672</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>302.277014</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.238568368419273</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>331.280983</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.386596399615953</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>194.501589</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.209879173050169</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-0.8940804431234572</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>270.014149</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.84454701102376</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>250.392337</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.511034548272925</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>273.327799</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.619219938768272</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>189.610395</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.104011987811142</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>9.175096660150682</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>200.246515</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.851173331332257</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>283.517384</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.975518349269457</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>304.929094</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.037662692755759</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>173.691516</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.759456668212156</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>6.160832997772525</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>489.142599</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>6.964567315877375</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>392.278145</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>5.500576160313629</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>339.788924</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>4.499252740528662</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>134.691941</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.915332466479758</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-31.95644940078108</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>205.614036</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.927597796100425</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>205.22243</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.877656123360205</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>212.745125</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.81702556817409</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>132.959925</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.877843939402533</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>11.86674821882854</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1715.814567</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>24.43031148353221</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>2003.233952</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>28.08961207844514</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>2194.137585</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>29.05327056042648</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1463.696164</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>31.68089283063401</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>15.50456734483356</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,453 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>18.189445</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>30.65405153007229</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>22.545196</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>33.61196307722547</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>26.60199</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>40.29357154161003</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>21.317884</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>43.71748279196646</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>33.15278887841493</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>11.366125</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>19.15494295990026</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>9.112449</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>13.58547955542725</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>10.758814</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>16.296188428455</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>14.20898</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>29.13895387747656</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>130.1003558957449</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>3.296787</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>5.555962734523921</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>4.032319</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>6.011664628845752</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>2.759403</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.179619727420142</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>3.379545</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.93057530391742</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>23.04767501428164</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>10.85437</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>18.29249970554191</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>13.522432</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>20.16019222446734</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>8.493451</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>12.8648824957704</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>2.231993</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.577242073804774</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-59.32992933006417</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>3.054285</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>5.147282381487003</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.798418</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.190337681526131</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>2.143984</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.247455272634387</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>1.756315</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.60174915999039</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>340.6518772016098</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.659648</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.796948192414965</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.350068</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>2.012776281374694</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>1.741286</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.637495616508538</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>1.033566</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.119577337945999</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>11.64368764663437</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>1.285626</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>2.166621667258167</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>1.328476</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.980585409901967</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>1.579779</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.392863772839293</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>0.9052829999999999</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.856501985579797</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>190.4396619761689</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.7476024943755514</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.803875</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.19847336074189</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.146667</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.736836559930417</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>0.8025060000000001</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.645732861922405</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>91.80307886453427</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>0.62439</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.280462877107125</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>1.997866</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>2.978559078627844</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>3.374761</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>5.111691786566922</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>0.509131</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.044096390211931</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-76.934322772968</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>9.18792</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>15.48408833442592</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>11.579837</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>17.26403503807594</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>7.420297</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>11.23939479826488</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>1.993242</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>4.087625340077131</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-64.54146454968324</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1748,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>2254.959233</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>32.38039653676383</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>2360.588222</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>33.4147579808345</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>2374.480137</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>31.71852594264369</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>1307.719609</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>28.60679554880823</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-9.555896307999301</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>397.664003</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>5.710310819413754</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>402.001649</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.690440918090534</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>468.059795</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>6.252386161955075</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>314.801002</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>6.886375214378216</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>14.6580517513734</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>710.659489</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>10.20481245056458</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>425.766909</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.026844533024612</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>385.821798</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.153843369084555</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>257.801112</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.639483917258759</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>84.30124083742434</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>365.491631</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.248327228915612</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>377.391107</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.342072110247196</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>393.027757</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.250101237879321</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>225.464394</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.932107600364005</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-5.189549817881578</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>66.229066</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.9510253613261235</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>106.364505</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.505618031642565</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>247.915513</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.311678420948745</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>203.043431</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.441641677750166</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>52.91991017553115</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>268.728523</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.858844101541618</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>249.063861</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.525565602473469</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>271.74802</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.630035260316881</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>188.705112</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.127986244793671</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>8.849197738540649</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>317.911191</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.565089371642252</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>293.164565</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.149822869035575</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>320.522169</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.281564867273905</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>180.292609</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.943959981274719</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-5.149666730507818</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>200.246515</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.875467310412803</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>283.517384</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>4.013264440374438</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>304.929094</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.073271124906377</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>173.418455</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.793585606909104</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>5.993937205238797</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>489.142599</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>7.023910271571308</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>392.278145</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>5.5528021169402</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>339.788924</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>4.538931967876465</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>134.221497</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.936139288964335</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-32.19410786705932</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>202.837329</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.912670459563038</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>202.528206</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.866840952908302</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>212.487078</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.83842209964107</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>132.731549</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.903546187567814</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>11.83221117665356</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1690.094653</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>24.26914608828508</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1971.843361</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>27.91197044442861</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>2167.318348</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>28.95123954747391</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1453.16123</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>31.78837873193098</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>16.29165617620374</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2206,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>291.52752</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>13.99858087861002</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>169.284716</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>8.415868423965051</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>251.322395</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>10.77429518581414</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>138.873187</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>12.48930701261418</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>3.331746970340599</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FURSKINS, TANNED OR DRESSED, OTHER THAN THOSE OF ITEMS 848 31 AND 848 32</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>253.127244</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>12.15467478923998</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>373.794951</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>18.58294829852486</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>456.176501</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>19.55647557236529</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>129.291757</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>11.62761856522605</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-53.48118208060191</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>2.5685</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.1233343424549073</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>100.612577</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.001882212615416</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>199.706435</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>8.561497598320297</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>95.40131</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.579742970798094</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>1.385479441576032</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>173.56455</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>8.334229958237056</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>110.117935</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>5.474434278394843</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>209.050211</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>8.962069146168732</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>94.334971</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>8.483843715958326</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-28.18807843022859</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>119.669274</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.746284298557965</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>167.772265</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>8.340678005630449</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>153.228933</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>6.568987833930747</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>87.740056</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>7.890742052949077</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-2.994368668594138</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>48.109396</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.31011902727769</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>30.478753</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.51522937826549</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>63.435409</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.719502262418163</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>84.27546</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>7.579159925013357</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>161.0662765206962</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>607.698529</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>29.18049386218782</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>508.1964</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>25.26462008497396</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>321.156493</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>13.76811189636663</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>70.330128</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>6.325011903330576</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-70.94263022593499</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>122.110823</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>5.86352270248494</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>103.691204</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>5.154933949184867</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>95.917233</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>4.112011513134409</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>63.73576</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>5.731959433769561</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>27.62625662605858</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>46.022383</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.209904748107029</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>48.539479</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.413105437302531</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>83.14411699999999</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>3.564422738856471</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>54.465543</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>4.898259360431752</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>17.71014650050349</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>87.364169</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>4.195056390007551</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>59.070065</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.936625978892643</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>91.78188900000001</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>3.934727602757518</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>52.241025</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>4.698201387706705</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>13.63111613083201</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>330.78814</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>15.88379900283505</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>339.935983</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>16.89967395224989</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>407.691387</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>17.4778986498676</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>241.247493</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>21.69615367220232</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>7.75465156540438</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
